--- a/plan.xlsx
+++ b/plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Java</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>JDBC, Hibernate, MyBatis, Spring JDBC</t>
-  </si>
-  <si>
     <t>Java数据库技术</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>WebService</t>
   </si>
   <si>
-    <t>RESTful, SOAP, Grails</t>
-  </si>
-  <si>
     <t>Groovy</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Hadoop, Solr</t>
   </si>
   <si>
-    <t>HTML(5), CSS, JavaScript, Ajax, jQuery</t>
-  </si>
-  <si>
     <t>Tool</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>Maven, Ant, Gradle, Jenkins, Sonar</t>
   </si>
   <si>
-    <t>Spring, Guice</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
@@ -97,16 +85,125 @@
   </si>
   <si>
     <t>Books</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDBC, Hibernate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, MyBatis, Spring JDBC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESTful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, SOAP, Grails</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HTML(5), CSS,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JavaScript, Ajax, jQuery</t>
+    </r>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Java Base, JVM, Concurrency, NIO, Groovy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Guice, JMS</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring, Guice, JMS</t>
+  </si>
+  <si>
+    <t>Java Data</t>
+  </si>
+  <si>
+    <t>Java Web</t>
+  </si>
+  <si>
+    <t>REST, SOA, Spring MVC, Structs, Grails. jQuery</t>
+  </si>
+  <si>
+    <t>ORM, Transaction, Persistence, Hadoop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,8 +229,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,20 +549,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -473,10 +571,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,80 +582,113 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
